--- a/medicine/Enfance/Fantômette_ouvre_l'œil/Fantômette_ouvre_l'œil.xlsx
+++ b/medicine/Enfance/Fantômette_ouvre_l'œil/Fantômette_ouvre_l'œil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_ouvre_l%27%C5%93il</t>
+          <t>Fantômette_ouvre_l'œil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette ouvre l'œil est le 47e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_ouvre_l%27%C5%93il</t>
+          <t>Fantômette_ouvre_l'œil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette ouvre l'œil a donc pu être vendu à environ 150000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_ouvre_l%27%C5%93il</t>
+          <t>Fantômette_ouvre_l'œil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_ouvre_l%27%C5%93il</t>
+          <t>Fantômette_ouvre_l'œil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1984 en langue française.
 Mise en place de l'intrigue (chapitres 1 et 2)
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_ouvre_l%27%C5%93il</t>
+          <t>Fantômette_ouvre_l'œil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le nom du groupe terroriste « Novembre Noir » peut faire allusion au groupe Septembre Noir.
 Ficelle écrit un courrier à Fantômette sans connaître son adresse ; néanmoins le facteur achemine la lettre.</t>
